--- a/r5-LinkedCare-dev/StructureDefinition-LINCAOrderActivity.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-LINCAOrderActivity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-19T15:02:19+00:00</t>
+    <t>2023-05-25T14:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-LINCAOrderActivity.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-LINCAOrderActivity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25T14:49:04+00:00</t>
+    <t>2023-05-25T15:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-LINCAOrderActivity.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-LINCAOrderActivity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25T15:18:34+00:00</t>
+    <t>2023-05-26T07:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-LINCAOrderActivity.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-LINCAOrderActivity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T07:34:33+00:00</t>
+    <t>2023-05-30T07:39:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-LINCAOrderActivity.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-LINCAOrderActivity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T07:39:15+00:00</t>
+    <t>2023-05-30T09:26:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-LINCAOrderActivity.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-LINCAOrderActivity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-19T09:14:41+00:00</t>
+    <t>2023-06-21T13:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-LINCAOrderActivity.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-LINCAOrderActivity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-21T13:25:12+00:00</t>
+    <t>2023-06-21T13:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
